--- a/arduino_sketchs/Шрифт.xlsx
+++ b/arduino_sketchs/Шрифт.xlsx
@@ -13,6 +13,10 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BM20" sqref="BM20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN26" sqref="AN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2389,7 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
-      <c r="AN26" s="2"/>
+      <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -2451,7 +2455,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
+      <c r="AN27" s="2"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="1"/>
@@ -5238,11 +5242,11 @@
       <c r="AZ69" s="1"/>
       <c r="BA69" s="1"/>
       <c r="BB69" s="2"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
+      <c r="BC69" s="2"/>
+      <c r="BD69" s="2"/>
+      <c r="BE69" s="2"/>
       <c r="BF69" s="2"/>
-      <c r="BG69" s="1"/>
+      <c r="BG69" s="2"/>
       <c r="BH69" s="1"/>
       <c r="BI69" s="1"/>
       <c r="BJ69" s="1"/>
@@ -5303,11 +5307,11 @@
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
       <c r="BA70" s="1"/>
-      <c r="BB70" s="2"/>
-      <c r="BC70" s="2"/>
-      <c r="BD70" s="2"/>
-      <c r="BE70" s="2"/>
-      <c r="BF70" s="2"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
       <c r="BG70" s="2"/>
       <c r="BH70" s="1"/>
       <c r="BI70" s="1"/>
@@ -5315,7 +5319,7 @@
       <c r="BK70" s="1"/>
       <c r="BL70" s="8"/>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5369,12 +5373,12 @@
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="2"/>
+      <c r="BB71" s="10"/>
+      <c r="BC71" s="10"/>
+      <c r="BD71" s="10"/>
+      <c r="BE71" s="10"/>
+      <c r="BF71" s="10"/>
+      <c r="BG71" s="10"/>
       <c r="BH71" s="1"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
@@ -6014,11 +6018,11 @@
       <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
       <c r="AL81" s="2"/>
-      <c r="AM81" s="1"/>
+      <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
-      <c r="AO81" s="1"/>
+      <c r="AO81" s="2"/>
       <c r="AP81" s="2"/>
-      <c r="AQ81" s="1"/>
+      <c r="AQ81" s="2"/>
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
@@ -6079,11 +6083,11 @@
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
       <c r="AK82" s="1"/>
-      <c r="AL82" s="2"/>
-      <c r="AM82" s="2"/>
-      <c r="AN82" s="2"/>
-      <c r="AO82" s="2"/>
-      <c r="AP82" s="2"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
       <c r="AQ82" s="2"/>
       <c r="AR82" s="1"/>
       <c r="AS82" s="1"/>
@@ -6150,7 +6154,7 @@
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
       <c r="AP83" s="1"/>
-      <c r="AQ83" s="2"/>
+      <c r="AQ83" s="1"/>
       <c r="AR83" s="1"/>
       <c r="AS83" s="1"/>
       <c r="AT83" s="1"/>
@@ -7199,11 +7203,11 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="2"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="J106" s="2"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>

--- a/arduino_sketchs/Шрифт.xlsx
+++ b/arduino_sketchs/Шрифт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN26" sqref="AN26"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BE103" sqref="BE103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7035,7 +7031,7 @@
       <c r="BK96" s="10"/>
       <c r="BL96" s="11"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -7052,8 +7048,56 @@
       <c r="N97" s="22"/>
       <c r="O97" s="22"/>
       <c r="P97" s="23"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97" s="21"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="22"/>
+      <c r="X97" s="22"/>
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="22"/>
+      <c r="AA97" s="22"/>
+      <c r="AB97" s="22"/>
+      <c r="AC97" s="22"/>
+      <c r="AD97" s="22"/>
+      <c r="AE97" s="22"/>
+      <c r="AF97" s="23"/>
+      <c r="AG97" s="21"/>
+      <c r="AH97" s="22"/>
+      <c r="AI97" s="22"/>
+      <c r="AJ97" s="22"/>
+      <c r="AK97" s="22"/>
+      <c r="AL97" s="22"/>
+      <c r="AM97" s="22"/>
+      <c r="AN97" s="22"/>
+      <c r="AO97" s="22"/>
+      <c r="AP97" s="22"/>
+      <c r="AQ97" s="22"/>
+      <c r="AR97" s="22"/>
+      <c r="AS97" s="22"/>
+      <c r="AT97" s="22"/>
+      <c r="AU97" s="22"/>
+      <c r="AV97" s="23"/>
+      <c r="AW97" s="21"/>
+      <c r="AX97" s="22"/>
+      <c r="AY97" s="22"/>
+      <c r="AZ97" s="22"/>
+      <c r="BA97" s="22"/>
+      <c r="BB97" s="22"/>
+      <c r="BC97" s="22"/>
+      <c r="BD97" s="22"/>
+      <c r="BE97" s="22"/>
+      <c r="BF97" s="22"/>
+      <c r="BG97" s="22"/>
+      <c r="BH97" s="22"/>
+      <c r="BI97" s="22"/>
+      <c r="BJ97" s="22"/>
+      <c r="BK97" s="22"/>
+      <c r="BL97" s="23"/>
+    </row>
+    <row r="98" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7070,8 +7114,56 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="8"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98" s="7"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="8"/>
+      <c r="AG98" s="7"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="8"/>
+      <c r="AW98" s="7"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="8"/>
+    </row>
+    <row r="99" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7088,8 +7180,56 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="8"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99" s="7"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="8"/>
+      <c r="AG99" s="7"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="2"/>
+      <c r="AL99" s="2"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="2"/>
+      <c r="AQ99" s="2"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="8"/>
+      <c r="AW99" s="7"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="2"/>
+      <c r="BB99" s="2"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="2"/>
+      <c r="BG99" s="2"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="8"/>
+    </row>
+    <row r="100" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7106,8 +7246,56 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="8"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100" s="7"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="8"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="2"/>
+      <c r="AK100" s="2"/>
+      <c r="AL100" s="2"/>
+      <c r="AM100" s="2"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="2"/>
+      <c r="AP100" s="2"/>
+      <c r="AQ100" s="2"/>
+      <c r="AR100" s="2"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1"/>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="8"/>
+      <c r="AW100" s="7"/>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="2"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="2"/>
+      <c r="BD100" s="1"/>
+      <c r="BE100" s="2"/>
+      <c r="BF100" s="1"/>
+      <c r="BG100" s="1"/>
+      <c r="BH100" s="2"/>
+      <c r="BI100" s="1"/>
+      <c r="BJ100" s="1"/>
+      <c r="BK100" s="1"/>
+      <c r="BL100" s="8"/>
+    </row>
+    <row r="101" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7124,8 +7312,56 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="8"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101" s="7"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="8"/>
+      <c r="AG101" s="7"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="2"/>
+      <c r="AJ101" s="2"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="2"/>
+      <c r="AN101" s="2"/>
+      <c r="AO101" s="2"/>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="2"/>
+      <c r="AS101" s="2"/>
+      <c r="AT101" s="1"/>
+      <c r="AU101" s="1"/>
+      <c r="AV101" s="8"/>
+      <c r="AW101" s="7"/>
+      <c r="AX101" s="1"/>
+      <c r="AY101" s="2"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
+      <c r="BC101" s="1"/>
+      <c r="BD101" s="2"/>
+      <c r="BE101" s="1"/>
+      <c r="BF101" s="1"/>
+      <c r="BG101" s="1"/>
+      <c r="BH101" s="1"/>
+      <c r="BI101" s="2"/>
+      <c r="BJ101" s="1"/>
+      <c r="BK101" s="1"/>
+      <c r="BL101" s="8"/>
+    </row>
+    <row r="102" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7142,8 +7378,56 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="8"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102" s="7"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="8"/>
+      <c r="AG102" s="7"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="2"/>
+      <c r="AJ102" s="2"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="2"/>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="2"/>
+      <c r="AS102" s="2"/>
+      <c r="AT102" s="1"/>
+      <c r="AU102" s="1"/>
+      <c r="AV102" s="8"/>
+      <c r="AW102" s="7"/>
+      <c r="AX102" s="1"/>
+      <c r="AY102" s="2"/>
+      <c r="AZ102" s="1"/>
+      <c r="BA102" s="1"/>
+      <c r="BB102" s="1"/>
+      <c r="BC102" s="1"/>
+      <c r="BD102" s="1"/>
+      <c r="BE102" s="1"/>
+      <c r="BF102" s="1"/>
+      <c r="BG102" s="1"/>
+      <c r="BH102" s="1"/>
+      <c r="BI102" s="2"/>
+      <c r="BJ102" s="1"/>
+      <c r="BK102" s="1"/>
+      <c r="BL102" s="8"/>
+    </row>
+    <row r="103" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7160,8 +7444,56 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="8"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103" s="7"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="8"/>
+      <c r="AG103" s="7"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="2"/>
+      <c r="AK103" s="2"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="2"/>
+      <c r="AR103" s="2"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="8"/>
+      <c r="AW103" s="7"/>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="2"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BC103" s="1"/>
+      <c r="BD103" s="1"/>
+      <c r="BE103" s="1"/>
+      <c r="BF103" s="1"/>
+      <c r="BG103" s="1"/>
+      <c r="BH103" s="2"/>
+      <c r="BI103" s="1"/>
+      <c r="BJ103" s="1"/>
+      <c r="BK103" s="1"/>
+      <c r="BL103" s="8"/>
+    </row>
+    <row r="104" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7178,8 +7510,56 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="8"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104" s="7"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="8"/>
+      <c r="AG104" s="7"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="2"/>
+      <c r="AL104" s="2"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+      <c r="AO104" s="1"/>
+      <c r="AP104" s="2"/>
+      <c r="AQ104" s="2"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AU104" s="1"/>
+      <c r="AV104" s="8"/>
+      <c r="AW104" s="7"/>
+      <c r="AX104" s="1"/>
+      <c r="AY104" s="1"/>
+      <c r="AZ104" s="1"/>
+      <c r="BA104" s="2"/>
+      <c r="BB104" s="1"/>
+      <c r="BC104" s="1"/>
+      <c r="BD104" s="1"/>
+      <c r="BE104" s="1"/>
+      <c r="BF104" s="1"/>
+      <c r="BG104" s="2"/>
+      <c r="BH104" s="1"/>
+      <c r="BI104" s="1"/>
+      <c r="BJ104" s="1"/>
+      <c r="BK104" s="1"/>
+      <c r="BL104" s="8"/>
+    </row>
+    <row r="105" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7196,8 +7576,56 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="8"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105" s="7"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="7"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="2"/>
+      <c r="AM105" s="2"/>
+      <c r="AN105" s="1"/>
+      <c r="AO105" s="2"/>
+      <c r="AP105" s="2"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="8"/>
+      <c r="AW105" s="7"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1"/>
+      <c r="BB105" s="2"/>
+      <c r="BC105" s="1"/>
+      <c r="BD105" s="1"/>
+      <c r="BE105" s="1"/>
+      <c r="BF105" s="2"/>
+      <c r="BG105" s="1"/>
+      <c r="BH105" s="1"/>
+      <c r="BI105" s="1"/>
+      <c r="BJ105" s="1"/>
+      <c r="BK105" s="1"/>
+      <c r="BL105" s="8"/>
+    </row>
+    <row r="106" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7214,8 +7642,56 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="8"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106" s="7"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="8"/>
+      <c r="AG106" s="7"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="2"/>
+      <c r="AN106" s="2"/>
+      <c r="AO106" s="2"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1"/>
+      <c r="AU106" s="1"/>
+      <c r="AV106" s="8"/>
+      <c r="AW106" s="7"/>
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="2"/>
+      <c r="BD106" s="1"/>
+      <c r="BE106" s="2"/>
+      <c r="BF106" s="1"/>
+      <c r="BG106" s="1"/>
+      <c r="BH106" s="1"/>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="8"/>
+    </row>
+    <row r="107" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7232,8 +7708,56 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="8"/>
-    </row>
-    <row r="108" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q107" s="7"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="8"/>
+      <c r="AG107" s="7"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+      <c r="AN107" s="2"/>
+      <c r="AO107" s="1"/>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="1"/>
+      <c r="AU107" s="1"/>
+      <c r="AV107" s="8"/>
+      <c r="AW107" s="7"/>
+      <c r="AX107" s="1"/>
+      <c r="AY107" s="1"/>
+      <c r="AZ107" s="1"/>
+      <c r="BA107" s="1"/>
+      <c r="BB107" s="1"/>
+      <c r="BC107" s="1"/>
+      <c r="BD107" s="2"/>
+      <c r="BE107" s="1"/>
+      <c r="BF107" s="1"/>
+      <c r="BG107" s="1"/>
+      <c r="BH107" s="1"/>
+      <c r="BI107" s="1"/>
+      <c r="BJ107" s="1"/>
+      <c r="BK107" s="1"/>
+      <c r="BL107" s="8"/>
+    </row>
+    <row r="108" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -7250,6 +7774,54 @@
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="11"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="10"/>
+      <c r="Z108" s="10"/>
+      <c r="AA108" s="10"/>
+      <c r="AB108" s="10"/>
+      <c r="AC108" s="10"/>
+      <c r="AD108" s="10"/>
+      <c r="AE108" s="10"/>
+      <c r="AF108" s="11"/>
+      <c r="AG108" s="9"/>
+      <c r="AH108" s="10"/>
+      <c r="AI108" s="10"/>
+      <c r="AJ108" s="10"/>
+      <c r="AK108" s="10"/>
+      <c r="AL108" s="10"/>
+      <c r="AM108" s="10"/>
+      <c r="AN108" s="10"/>
+      <c r="AO108" s="10"/>
+      <c r="AP108" s="10"/>
+      <c r="AQ108" s="10"/>
+      <c r="AR108" s="10"/>
+      <c r="AS108" s="10"/>
+      <c r="AT108" s="10"/>
+      <c r="AU108" s="10"/>
+      <c r="AV108" s="11"/>
+      <c r="AW108" s="9"/>
+      <c r="AX108" s="10"/>
+      <c r="AY108" s="10"/>
+      <c r="AZ108" s="10"/>
+      <c r="BA108" s="10"/>
+      <c r="BB108" s="10"/>
+      <c r="BC108" s="10"/>
+      <c r="BD108" s="10"/>
+      <c r="BE108" s="10"/>
+      <c r="BF108" s="10"/>
+      <c r="BG108" s="10"/>
+      <c r="BH108" s="10"/>
+      <c r="BI108" s="10"/>
+      <c r="BJ108" s="10"/>
+      <c r="BK108" s="10"/>
+      <c r="BL108" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/arduino_sketchs/Шрифт.xlsx
+++ b/arduino_sketchs/Шрифт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19440" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE103" sqref="BE103"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD101" sqref="BD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7216,13 +7216,13 @@
       <c r="AX99" s="1"/>
       <c r="AY99" s="1"/>
       <c r="AZ99" s="1"/>
-      <c r="BA99" s="2"/>
-      <c r="BB99" s="2"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
       <c r="BC99" s="1"/>
       <c r="BD99" s="1"/>
       <c r="BE99" s="1"/>
-      <c r="BF99" s="2"/>
-      <c r="BG99" s="2"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="1"/>
       <c r="BH99" s="1"/>
       <c r="BI99" s="1"/>
       <c r="BJ99" s="1"/>
@@ -7281,15 +7281,15 @@
       <c r="AW100" s="7"/>
       <c r="AX100" s="1"/>
       <c r="AY100" s="1"/>
-      <c r="AZ100" s="2"/>
-      <c r="BA100" s="1"/>
-      <c r="BB100" s="1"/>
-      <c r="BC100" s="2"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="2"/>
+      <c r="BB100" s="2"/>
+      <c r="BC100" s="1"/>
       <c r="BD100" s="1"/>
-      <c r="BE100" s="2"/>
-      <c r="BF100" s="1"/>
-      <c r="BG100" s="1"/>
-      <c r="BH100" s="2"/>
+      <c r="BE100" s="1"/>
+      <c r="BF100" s="2"/>
+      <c r="BG100" s="2"/>
+      <c r="BH100" s="1"/>
       <c r="BI100" s="1"/>
       <c r="BJ100" s="1"/>
       <c r="BK100" s="1"/>
@@ -7346,17 +7346,17 @@
       <c r="AV101" s="8"/>
       <c r="AW101" s="7"/>
       <c r="AX101" s="1"/>
-      <c r="AY101" s="2"/>
-      <c r="AZ101" s="1"/>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="2"/>
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
-      <c r="BC101" s="1"/>
-      <c r="BD101" s="2"/>
-      <c r="BE101" s="1"/>
+      <c r="BC101" s="2"/>
+      <c r="BD101" s="1"/>
+      <c r="BE101" s="2"/>
       <c r="BF101" s="1"/>
       <c r="BG101" s="1"/>
-      <c r="BH101" s="1"/>
-      <c r="BI101" s="2"/>
+      <c r="BH101" s="2"/>
+      <c r="BI101" s="1"/>
       <c r="BJ101" s="1"/>
       <c r="BK101" s="1"/>
       <c r="BL101" s="8"/>
@@ -7412,17 +7412,17 @@
       <c r="AV102" s="8"/>
       <c r="AW102" s="7"/>
       <c r="AX102" s="1"/>
-      <c r="AY102" s="2"/>
-      <c r="AZ102" s="1"/>
+      <c r="AY102" s="1"/>
+      <c r="AZ102" s="2"/>
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="1"/>
-      <c r="BD102" s="1"/>
+      <c r="BD102" s="2"/>
       <c r="BE102" s="1"/>
       <c r="BF102" s="1"/>
       <c r="BG102" s="1"/>
-      <c r="BH102" s="1"/>
-      <c r="BI102" s="2"/>
+      <c r="BH102" s="2"/>
+      <c r="BI102" s="1"/>
       <c r="BJ102" s="1"/>
       <c r="BK102" s="1"/>
       <c r="BL102" s="8"/>
@@ -7479,15 +7479,15 @@
       <c r="AW103" s="7"/>
       <c r="AX103" s="1"/>
       <c r="AY103" s="1"/>
-      <c r="AZ103" s="2"/>
-      <c r="BA103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="2"/>
       <c r="BB103" s="1"/>
       <c r="BC103" s="1"/>
       <c r="BD103" s="1"/>
       <c r="BE103" s="1"/>
       <c r="BF103" s="1"/>
-      <c r="BG103" s="1"/>
-      <c r="BH103" s="2"/>
+      <c r="BG103" s="2"/>
+      <c r="BH103" s="1"/>
       <c r="BI103" s="1"/>
       <c r="BJ103" s="1"/>
       <c r="BK103" s="1"/>
@@ -7546,13 +7546,13 @@
       <c r="AX104" s="1"/>
       <c r="AY104" s="1"/>
       <c r="AZ104" s="1"/>
-      <c r="BA104" s="2"/>
-      <c r="BB104" s="1"/>
+      <c r="BA104" s="1"/>
+      <c r="BB104" s="2"/>
       <c r="BC104" s="1"/>
       <c r="BD104" s="1"/>
       <c r="BE104" s="1"/>
-      <c r="BF104" s="1"/>
-      <c r="BG104" s="2"/>
+      <c r="BF104" s="2"/>
+      <c r="BG104" s="1"/>
       <c r="BH104" s="1"/>
       <c r="BI104" s="1"/>
       <c r="BJ104" s="1"/>
@@ -7613,11 +7613,11 @@
       <c r="AY105" s="1"/>
       <c r="AZ105" s="1"/>
       <c r="BA105" s="1"/>
-      <c r="BB105" s="2"/>
-      <c r="BC105" s="1"/>
+      <c r="BB105" s="1"/>
+      <c r="BC105" s="2"/>
       <c r="BD105" s="1"/>
-      <c r="BE105" s="1"/>
-      <c r="BF105" s="2"/>
+      <c r="BE105" s="2"/>
+      <c r="BF105" s="1"/>
       <c r="BG105" s="1"/>
       <c r="BH105" s="1"/>
       <c r="BI105" s="1"/>
@@ -7680,9 +7680,9 @@
       <c r="AZ106" s="1"/>
       <c r="BA106" s="1"/>
       <c r="BB106" s="1"/>
-      <c r="BC106" s="2"/>
-      <c r="BD106" s="1"/>
-      <c r="BE106" s="2"/>
+      <c r="BC106" s="1"/>
+      <c r="BD106" s="2"/>
+      <c r="BE106" s="1"/>
       <c r="BF106" s="1"/>
       <c r="BG106" s="1"/>
       <c r="BH106" s="1"/>
@@ -7747,7 +7747,7 @@
       <c r="BA107" s="1"/>
       <c r="BB107" s="1"/>
       <c r="BC107" s="1"/>
-      <c r="BD107" s="2"/>
+      <c r="BD107" s="1"/>
       <c r="BE107" s="1"/>
       <c r="BF107" s="1"/>
       <c r="BG107" s="1"/>
